--- a/bin/Debug/net8.0-windows/InfoTech2_Quiz.xlsx
+++ b/bin/Debug/net8.0-windows/InfoTech2_Quiz.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>Question</t>
   </si>
@@ -438,21 +438,6 @@
   </si>
   <si>
     <t>Graphics Utility Integration</t>
-  </si>
-  <si>
-    <t>Which component manages GPU operations?</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>ALU</t>
-  </si>
-  <si>
-    <t>VRAM</t>
-  </si>
-  <si>
-    <t>SSD</t>
   </si>
 </sst>
 </file>
@@ -1605,13 +1590,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="36.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="40.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2231,26 +2220,6 @@
       </c>
       <c r="F31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
